--- a/banco_de_dados_teste.xlsx
+++ b/banco_de_dados_teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,41 @@
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
